--- a/outcome/simulate data/A_Syphilis.xlsx
+++ b/outcome/simulate data/A_Syphilis.xlsx
@@ -409,13 +409,13 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>49791.756300938</v>
+        <v>49810.9863773405</v>
       </c>
       <c r="C2" t="n">
-        <v>45450.6194712795</v>
+        <v>45534.6878733408</v>
       </c>
       <c r="D2" t="n">
-        <v>43760.5929657832</v>
+        <v>43848.7395526513</v>
       </c>
       <c r="E2" t="n">
         <v>53260.6375079063</v>
@@ -435,13 +435,13 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>44127.0072489298</v>
+        <v>44171.3937402696</v>
       </c>
       <c r="C3" t="n">
-        <v>36588.1127605693</v>
+        <v>36759.4668558678</v>
       </c>
       <c r="D3" t="n">
-        <v>35149.7699999566</v>
+        <v>35324.7714303681</v>
       </c>
       <c r="E3" t="n">
         <v>49385.9537008084</v>
@@ -461,13 +461,13 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>55673.192940997</v>
+        <v>55712.3126883505</v>
       </c>
       <c r="C4" t="n">
-        <v>49048.0341196884</v>
+        <v>49186.031224375</v>
       </c>
       <c r="D4" t="n">
-        <v>47295.9569862854</v>
+        <v>47445.7466896011</v>
       </c>
       <c r="E4" t="n">
         <v>60319.3137118115</v>
@@ -487,13 +487,13 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>54446.4635915423</v>
+        <v>54487.7931009155</v>
       </c>
       <c r="C5" t="n">
-        <v>49434.6687988082</v>
+        <v>49606.5627937953</v>
       </c>
       <c r="D5" t="n">
-        <v>47840.6626400171</v>
+        <v>47991.9833165485</v>
       </c>
       <c r="E5" t="n">
         <v>58572.6473345567</v>
@@ -513,13 +513,13 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>57142.5076145565</v>
+        <v>57166.2542281725</v>
       </c>
       <c r="C6" t="n">
-        <v>50985.4348163419</v>
+        <v>51135.0590035741</v>
       </c>
       <c r="D6" t="n">
-        <v>49645.135716493</v>
+        <v>49714.3814974719</v>
       </c>
       <c r="E6" t="n">
         <v>61933.4949498433</v>
@@ -539,13 +539,13 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>55523.4538744798</v>
+        <v>55555.7208562299</v>
       </c>
       <c r="C7" t="n">
-        <v>49703.334417975</v>
+        <v>49874.2983425766</v>
       </c>
       <c r="D7" t="n">
-        <v>48229.4723262089</v>
+        <v>48409.7640633496</v>
       </c>
       <c r="E7" t="n">
         <v>60435.5468252697</v>
@@ -565,13 +565,13 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>58457.5784566474</v>
+        <v>58490.3034084484</v>
       </c>
       <c r="C8" t="n">
-        <v>53162.6595503333</v>
+        <v>53332.9181871183</v>
       </c>
       <c r="D8" t="n">
-        <v>51292.6815173766</v>
+        <v>51467.8560375555</v>
       </c>
       <c r="E8" t="n">
         <v>63555.8132612877</v>
@@ -591,13 +591,13 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>58431.7338457463</v>
+        <v>58463.6913817095</v>
       </c>
       <c r="C9" t="n">
-        <v>52871.1079469627</v>
+        <v>53054.8233966454</v>
       </c>
       <c r="D9" t="n">
-        <v>51204.5774560631</v>
+        <v>51389.4078968961</v>
       </c>
       <c r="E9" t="n">
         <v>63973.9116333779</v>
@@ -617,10 +617,10 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>56401.9152311696</v>
+        <v>56453.1104396346</v>
       </c>
       <c r="C10" t="n">
-        <v>52394.4385729842</v>
+        <v>52574.6203627444</v>
       </c>
       <c r="D10" t="n">
         <v>50225.9702650046</v>
@@ -643,7 +643,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>56020.6729571508</v>
+        <v>56070.2984665995</v>
       </c>
       <c r="C11" t="n">
         <v>51682.8266261237</v>
@@ -669,7 +669,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>55309.0064298414</v>
+        <v>55357.4589613264</v>
       </c>
       <c r="C12" t="n">
         <v>50859.6509283663</v>
@@ -695,7 +695,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>53829.6776211614</v>
+        <v>53879.7728502239</v>
       </c>
       <c r="C13" t="n">
         <v>48677.2760078207</v>
@@ -721,13 +721,13 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>55193.7937420676</v>
+        <v>55250.9098308867</v>
       </c>
       <c r="C14" t="n">
-        <v>49434.4083434492</v>
+        <v>49732.5034051244</v>
       </c>
       <c r="D14" t="n">
-        <v>47531.0592940112</v>
+        <v>47893.176997115</v>
       </c>
       <c r="E14" t="n">
         <v>62096.2357108954</v>
@@ -747,13 +747,13 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>50115.4309269279</v>
+        <v>50181.9960621453</v>
       </c>
       <c r="C15" t="n">
-        <v>42141.615042548</v>
+        <v>42433.3434737894</v>
       </c>
       <c r="D15" t="n">
-        <v>39390.2404269214</v>
+        <v>39957.2565171016</v>
       </c>
       <c r="E15" t="n">
         <v>57680.7143389952</v>
@@ -773,13 +773,13 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>60543.8124694636</v>
+        <v>60614.071972295</v>
       </c>
       <c r="C16" t="n">
-        <v>51281.0038796139</v>
+        <v>51622.322871479</v>
       </c>
       <c r="D16" t="n">
-        <v>49343.6156697966</v>
+        <v>49599.6794580853</v>
       </c>
       <c r="E16" t="n">
         <v>69567.1731407434</v>
@@ -799,13 +799,13 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>59213.7991220482</v>
+        <v>59264.0282583119</v>
       </c>
       <c r="C17" t="n">
-        <v>51197.0844830695</v>
+        <v>51460.3176005282</v>
       </c>
       <c r="D17" t="n">
-        <v>49519.9665999684</v>
+        <v>49758.6024583583</v>
       </c>
       <c r="E17" t="n">
         <v>68025.8041105769</v>
@@ -825,13 +825,13 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>61816.9151984363</v>
+        <v>61868.2091564288</v>
       </c>
       <c r="C18" t="n">
-        <v>52692.9657014893</v>
+        <v>52939.6959010027</v>
       </c>
       <c r="D18" t="n">
-        <v>51073.1603538862</v>
+        <v>51383.2284295765</v>
       </c>
       <c r="E18" t="n">
         <v>71589.4779390442</v>
@@ -851,13 +851,13 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>60442.5786181939</v>
+        <v>60497.7833887303</v>
       </c>
       <c r="C19" t="n">
-        <v>52057.8812418749</v>
+        <v>52308.7472616156</v>
       </c>
       <c r="D19" t="n">
-        <v>50103.5308179532</v>
+        <v>50397.7733063606</v>
       </c>
       <c r="E19" t="n">
         <v>70290.8427794996</v>
@@ -877,13 +877,13 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>62837.5905262516</v>
+        <v>62899.7135650019</v>
       </c>
       <c r="C20" t="n">
-        <v>53355.2360018408</v>
+        <v>53675.1544388498</v>
       </c>
       <c r="D20" t="n">
-        <v>51794.2423691096</v>
+        <v>52082.0540602206</v>
       </c>
       <c r="E20" t="n">
         <v>73606.1624666125</v>
@@ -903,13 +903,13 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>62879.2557518221</v>
+        <v>62940.0289969157</v>
       </c>
       <c r="C21" t="n">
-        <v>53250.0160829654</v>
+        <v>53520.1698075623</v>
       </c>
       <c r="D21" t="n">
-        <v>51628.2307287024</v>
+        <v>51905.2102496509</v>
       </c>
       <c r="E21" t="n">
         <v>74214.570903335</v>
@@ -929,10 +929,10 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>60977.8508193898</v>
+        <v>61055.1907367911</v>
       </c>
       <c r="C22" t="n">
-        <v>53037.6803237336</v>
+        <v>53385.7271760288</v>
       </c>
       <c r="D22" t="n">
         <v>51137.5450189136</v>
@@ -955,10 +955,10 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>60627.2778362086</v>
+        <v>60703.7885334593</v>
       </c>
       <c r="C23" t="n">
-        <v>53315.8984983247</v>
+        <v>53623.8146643891</v>
       </c>
       <c r="D23" t="n">
         <v>50127.7978417252</v>
@@ -981,10 +981,10 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>60005.7931387913</v>
+        <v>60082.7659025354</v>
       </c>
       <c r="C24" t="n">
-        <v>52713.657824238</v>
+        <v>52908.0457478286</v>
       </c>
       <c r="D24" t="n">
         <v>48901.6113166097</v>
@@ -1007,7 +1007,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>58667.2116678641</v>
+        <v>58745.1722156543</v>
       </c>
       <c r="C25" t="n">
         <v>50716.7488800017</v>
@@ -1033,10 +1033,10 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>60054.0069648944</v>
+        <v>60133.4981821939</v>
       </c>
       <c r="C26" t="n">
-        <v>52076.2352394123</v>
+        <v>52300.8557629942</v>
       </c>
       <c r="D26" t="n">
         <v>47906.3599230583</v>
@@ -1059,7 +1059,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>55823.6876659425</v>
+        <v>55924.1164342885</v>
       </c>
       <c r="C27" t="n">
         <v>46661.8292419071</v>
@@ -1085,13 +1085,13 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>65158.0674036913</v>
+        <v>65241.7561531443</v>
       </c>
       <c r="C28" t="n">
-        <v>52654.5327624344</v>
+        <v>53061.4788801644</v>
       </c>
       <c r="D28" t="n">
-        <v>50762.0359289399</v>
+        <v>50945.8809439118</v>
       </c>
       <c r="E28" t="n">
         <v>81003.0597325326</v>
@@ -1111,10 +1111,10 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>63798.8840893533</v>
+        <v>63858.8965580546</v>
       </c>
       <c r="C29" t="n">
-        <v>52570.9401645197</v>
+        <v>52897.2207214166</v>
       </c>
       <c r="D29" t="n">
         <v>50773.8394089413</v>
@@ -1137,13 +1137,13 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>66270.4252550334</v>
+        <v>66344.1139170705</v>
       </c>
       <c r="C30" t="n">
-        <v>53203.348200628</v>
+        <v>53526.9370647468</v>
       </c>
       <c r="D30" t="n">
-        <v>51291.0635331458</v>
+        <v>51668.9596873768</v>
       </c>
       <c r="E30" t="n">
         <v>83328.7358212671</v>
